--- a/Cerberus进度.xlsx
+++ b/Cerberus进度.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="V01" sheetId="1" r:id="rId1"/>
+    <sheet name="V02" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>未完成</t>
   </si>
@@ -1371,8 +1371,8 @@
   <sheetPr/>
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1938,7 +1938,7 @@
       <c r="AZ10" s="9"/>
       <c r="BA10" s="24"/>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" ht="14.25" spans="1:53">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2821,14 +2821,802 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="2:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="24"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="24"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="24"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="24"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="24"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="24"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="24"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="24"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:22">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="24"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="24"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="24"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="24"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="24"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="24"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="24"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:22">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="25"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="23"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="24"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="24"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="24"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="24"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="24"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="24"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="24"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="24"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:22">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B2:H11"/>
+    <mergeCell ref="I2:O11"/>
+    <mergeCell ref="P2:V11"/>
+    <mergeCell ref="B12:H21"/>
+    <mergeCell ref="I12:O21"/>
+    <mergeCell ref="P12:V21"/>
+    <mergeCell ref="B22:H31"/>
+    <mergeCell ref="I22:O31"/>
+    <mergeCell ref="P22:V31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Cerberus进度.xlsx
+++ b/Cerberus进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowHeight="17775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V01" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>未完成</t>
   </si>
@@ -216,7 +216,7 @@
   <si>
     <t>舵机选择: 用35KG的舵机，
 鑫辉: 4.8~8.4V 1.2A
-(这里选7.4V，1.2A)</t>
+(这里选7.4V，1.113A)</t>
   </si>
   <si>
     <t>电池: 使用两组品型电池组，单组输出不小于10A；</t>
@@ -249,6 +249,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.充电保护；</t>
     </r>
     <r>
@@ -259,7 +266,26 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-放电保护；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低压保护；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -270,8 +296,19 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>2.防止反接保护；
-3.充放电分离；</t>
+      <t xml:space="preserve">2.防止反接保护；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.充放电分离；</t>
     </r>
     <r>
       <rPr>
@@ -296,43 +333,214 @@
     </r>
   </si>
   <si>
+    <t>1.PMOS过流这边按15A给的，电池最高输出30A，但是电路中用不到；
+2.</t>
+  </si>
+  <si>
+    <t>1.设计好电路；
+2.检查；
+3.PCB_Layout;
+4.检查；
+5.焊接并测试电池管理部分（电池充电电路，VBAT+是否为4V2 // 1号或门是否正常 // 2号或门是否正常 // 比较器是否正常 // PMOS是否正常）</t>
+  </si>
+  <si>
     <t>BOOST 升压7V4</t>
   </si>
   <si>
-    <t>1.DCDC 升压 2S；
-2.过流保护 1.13A；
-3.输入输出滤波（多加几个NC防备）；</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.DCDC 升压 7V4；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.过流保护 1.113A；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.输入输出滤波（多加几个NC防备）；</t>
+    </r>
   </si>
   <si>
     <t>1.注意EMI；</t>
   </si>
   <si>
+    <t xml:space="preserve">
+1.焊接单个部分；
+2.断开别的地方；
+3.测试输入3V7能不能升压到7V4；
+4.依次焊接，依次验证；
+</t>
+  </si>
+  <si>
     <t>BOOST 升压5V</t>
   </si>
   <si>
-    <t>1.DCDC 升压 5V；
-2.过流保护 2A；
-3.输出稳压；
-4.输出滤波（加NC）；</t>
+    <r>
+      <t>1.DCDC 升压 5V；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.过流保护 3A；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.输出稳压；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.输出滤波（加NC）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
   </si>
   <si>
     <t>LDO 降压3V3</t>
   </si>
   <si>
-    <t xml:space="preserve">1.LDO降压 3V3；
-2.过流保护，（预留）（用0R过度）；
-3.输出稳压；
-4.输入输出滤波；
+    <r>
+      <t>1.LDO降压 3V3；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.输出稳压；
+3.输入输出滤波；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>引出接口</t>
   </si>
   <si>
-    <t>1.PWM接口</t>
+    <t xml:space="preserve">PWM接口
+7V4端子
+5V端子
+3V3端子
+</t>
   </si>
   <si>
     <t>测试点</t>
+  </si>
+  <si>
+    <t>测试点
+LED</t>
   </si>
 </sst>
 </file>
@@ -345,7 +553,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +732,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1171,7 +1387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1585,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1814,1406 +2051,1406 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:53">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="80" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="80" t="s">
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
-      <c r="Y1" s="96" t="s">
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
+      <c r="Y1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="83" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="71" t="s">
+      <c r="AC1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="71" t="s">
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="105" t="s">
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="80" t="s">
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="82"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="89"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="86" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="72"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="86" t="s">
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="79"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="72"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="80"/>
+      <c r="BA2" s="79"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="84"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="75"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="82"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="82"/>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="84"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="75"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="75"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="75"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="82"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="82"/>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="84"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="75"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="75"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="82"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="82"/>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="84"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="75"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="75"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="75"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="82"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="82"/>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="84"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="75"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="76"/>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="76"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="75"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="82"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="82"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="82"/>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="84"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="75"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="75"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="82"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="82"/>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="84"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="75"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="75"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="82"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="81"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="82"/>
     </row>
     <row r="10" ht="14.25" spans="1:53">
-      <c r="A10" s="84"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="75"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="75"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="82"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="82"/>
     </row>
     <row r="11" ht="14.25" spans="1:53">
-      <c r="A11" s="85"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="78"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="83" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="85"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AC11" s="86" t="s">
+      <c r="AC11" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="71" t="s">
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="89" t="s">
+      <c r="AK11" s="80"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="80"/>
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="80"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="76"/>
-      <c r="BA11" s="75"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="80"/>
+      <c r="AT11" s="80"/>
+      <c r="AU11" s="80"/>
+      <c r="AV11" s="80"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="82"/>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="86" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="72"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="74"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="75"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="79"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="82"/>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="84"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="75"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="75"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="74"/>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="76"/>
-      <c r="BA13" s="75"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="82"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="82"/>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="84"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="75"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="74"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="75"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="82"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="82"/>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="84"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="75"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="74"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="75"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="82"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="83"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="81"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="82"/>
     </row>
     <row r="16" spans="1:53">
-      <c r="A16" s="84"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="75"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="75"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="82"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="83"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="82"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="84"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="75"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="74"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="75"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="82"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="82"/>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="84"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="75"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="75"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="82"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="81"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="82"/>
     </row>
     <row r="19" spans="1:53">
-      <c r="A19" s="84"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="75"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="75"/>
-      <c r="AX19" s="74"/>
-      <c r="AY19" s="76"/>
-      <c r="AZ19" s="76"/>
-      <c r="BA19" s="75"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="82"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="83"/>
+      <c r="AO19" s="83"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="83"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="83"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="81"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="82"/>
     </row>
     <row r="20" ht="14.25" spans="1:53">
-      <c r="A20" s="84"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="75"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="79"/>
-      <c r="AZ20" s="79"/>
-      <c r="BA20" s="78"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="82"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="86"/>
+      <c r="AZ20" s="86"/>
+      <c r="BA20" s="85"/>
     </row>
     <row r="21" ht="14.25" spans="1:27">
-      <c r="A21" s="85"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="78"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="101"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="85"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="108"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="72"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="79"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="108"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="84"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="75"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="101"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="82"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="108"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="84"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="75"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="82"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="108"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="84"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="75"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="101"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="82"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="108"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="84"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="75"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="101"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="82"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="108"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="84"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="75"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="101"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="82"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="108"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="84"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="75"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="101"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="82"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="108"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="84"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="75"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="101"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="82"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="108"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="84"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="75"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="101"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="82"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="108"/>
     </row>
     <row r="31" ht="14.25" spans="1:27">
-      <c r="A31" s="85"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="78"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="104"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="85"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3265,773 +3502,773 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="2:22">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="80" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="80" t="s">
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="86" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="72"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="84"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="75"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="82"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="84"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="75"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="82"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="84"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="75"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="82"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="84"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="75"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="82"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="84"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="75"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="82"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="84"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="75"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="82"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="84"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="75"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="82"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="84"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="75"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="82"/>
     </row>
     <row r="11" ht="14.25" spans="1:22">
-      <c r="A11" s="85"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="78"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="85"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="86" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89" t="s">
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="72"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="84"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="75"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="82"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="84"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="75"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="82"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="84"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="75"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="82"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="84"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="75"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="82"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="84"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="75"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="82"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="84"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="75"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="82"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="84"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="75"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="82"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="84"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="75"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="82"/>
     </row>
     <row r="21" ht="14.25" spans="1:22">
-      <c r="A21" s="85"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="78"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="85"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="72"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="84"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="75"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="82"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="84"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="75"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="82"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="84"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="75"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="82"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="84"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="75"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="82"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="84"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="75"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="82"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="84"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="75"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="82"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="84"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="75"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="82"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="84"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="75"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="82"/>
     </row>
     <row r="31" ht="14.25" spans="1:22">
-      <c r="A31" s="85"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="78"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4062,8 +4299,8 @@
   <sheetPr/>
   <dimension ref="C2:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:Q28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47:Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4368,7 +4605,7 @@
       <c r="V18" s="25"/>
       <c r="W18" s="24"/>
     </row>
-    <row r="19" spans="3:23">
+    <row r="19" ht="14.25" spans="3:23">
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="26"/>
@@ -4407,18 +4644,22 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="47"/>
+      <c r="L20" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="32"/>
+      <c r="R20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="66"/>
     </row>
     <row r="21" spans="3:23">
       <c r="C21" s="35"/>
@@ -4436,12 +4677,12 @@
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="38"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="69"/>
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="35"/>
@@ -4459,12 +4700,12 @@
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="38"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="38"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="69"/>
     </row>
     <row r="23" spans="3:23">
       <c r="C23" s="35"/>
@@ -4482,12 +4723,12 @@
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="38"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="69"/>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="35"/>
@@ -4505,12 +4746,12 @@
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="38"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="38"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="69"/>
     </row>
     <row r="25" spans="3:23">
       <c r="C25" s="35"/>
@@ -4528,12 +4769,12 @@
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="38"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="69"/>
     </row>
     <row r="26" spans="3:23">
       <c r="C26" s="35"/>
@@ -4551,12 +4792,12 @@
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="38"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="69"/>
     </row>
     <row r="27" spans="3:23">
       <c r="C27" s="35"/>
@@ -4574,12 +4815,12 @@
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="38"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="69"/>
     </row>
     <row r="28" ht="14.25" spans="3:23">
       <c r="C28" s="35"/>
@@ -4597,41 +4838,43 @@
       <c r="O28" s="41"/>
       <c r="P28" s="41"/>
       <c r="Q28" s="42"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="42"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="72"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="35"/>
       <c r="D29" s="36"/>
       <c r="E29" s="34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F29" s="32"/>
-      <c r="G29" s="44" t="s">
-        <v>40</v>
+      <c r="G29" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="32"/>
       <c r="L29" s="47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="32"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="32"/>
+      <c r="R29" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="66"/>
     </row>
     <row r="30" spans="3:23">
       <c r="C30" s="35"/>
@@ -4649,12 +4892,12 @@
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="38"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="38"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="69"/>
     </row>
     <row r="31" spans="3:23">
       <c r="C31" s="35"/>
@@ -4672,12 +4915,12 @@
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="38"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="69"/>
     </row>
     <row r="32" spans="3:23">
       <c r="C32" s="35"/>
@@ -4695,12 +4938,12 @@
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
       <c r="Q32" s="38"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="38"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="69"/>
     </row>
     <row r="33" spans="3:23">
       <c r="C33" s="35"/>
@@ -4718,12 +4961,12 @@
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
       <c r="Q33" s="38"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="38"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="69"/>
     </row>
     <row r="34" spans="3:23">
       <c r="C34" s="35"/>
@@ -4741,12 +4984,12 @@
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
       <c r="Q34" s="38"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="38"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="69"/>
     </row>
     <row r="35" spans="3:23">
       <c r="C35" s="35"/>
@@ -4764,12 +5007,12 @@
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
       <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="38"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="69"/>
     </row>
     <row r="36" spans="3:23">
       <c r="C36" s="35"/>
@@ -4787,14 +5030,14 @@
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
       <c r="Q36" s="38"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="38"/>
-    </row>
-    <row r="37" ht="14.25" spans="3:23">
+      <c r="R36" s="67"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="69"/>
+    </row>
+    <row r="37" spans="3:23">
       <c r="C37" s="35"/>
       <c r="D37" s="36"/>
       <c r="E37" s="41"/>
@@ -4810,22 +5053,22 @@
       <c r="O37" s="41"/>
       <c r="P37" s="41"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="42"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="72"/>
     </row>
     <row r="38" spans="3:23">
       <c r="C38" s="35"/>
       <c r="D38" s="36"/>
       <c r="E38" s="34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F38" s="32"/>
-      <c r="G38" s="44" t="s">
-        <v>43</v>
+      <c r="G38" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4837,12 +5080,12 @@
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="32"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="32"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="66"/>
     </row>
     <row r="39" spans="3:23">
       <c r="C39" s="35"/>
@@ -4860,12 +5103,12 @@
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
       <c r="Q39" s="38"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="38"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="69"/>
     </row>
     <row r="40" spans="3:23">
       <c r="C40" s="35"/>
@@ -4883,12 +5126,12 @@
       <c r="O40" s="40"/>
       <c r="P40" s="40"/>
       <c r="Q40" s="38"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="38"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="69"/>
     </row>
     <row r="41" spans="3:23">
       <c r="C41" s="35"/>
@@ -4906,12 +5149,12 @@
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
       <c r="Q41" s="38"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="38"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="69"/>
     </row>
     <row r="42" spans="3:23">
       <c r="C42" s="35"/>
@@ -4929,12 +5172,12 @@
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
       <c r="Q42" s="38"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="38"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="69"/>
     </row>
     <row r="43" spans="3:23">
       <c r="C43" s="35"/>
@@ -4952,12 +5195,12 @@
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
       <c r="Q43" s="38"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="38"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="69"/>
     </row>
     <row r="44" spans="3:23">
       <c r="C44" s="35"/>
@@ -4975,12 +5218,12 @@
       <c r="O44" s="40"/>
       <c r="P44" s="40"/>
       <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="38"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="69"/>
     </row>
     <row r="45" spans="3:23">
       <c r="C45" s="35"/>
@@ -4998,14 +5241,14 @@
       <c r="O45" s="40"/>
       <c r="P45" s="40"/>
       <c r="Q45" s="38"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="38"/>
-    </row>
-    <row r="46" ht="14.25" spans="3:23">
+      <c r="R45" s="67"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="69"/>
+    </row>
+    <row r="46" spans="3:23">
       <c r="C46" s="35"/>
       <c r="D46" s="36"/>
       <c r="E46" s="41"/>
@@ -5021,22 +5264,22 @@
       <c r="O46" s="41"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="42"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="42"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="72"/>
     </row>
     <row r="47" spans="3:23">
       <c r="C47" s="35"/>
       <c r="D47" s="36"/>
       <c r="E47" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F47" s="32"/>
-      <c r="G47" s="44" t="s">
-        <v>45</v>
+      <c r="G47" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -5048,12 +5291,12 @@
       <c r="O47" s="34"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="32"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="32"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="66"/>
     </row>
     <row r="48" spans="3:23">
       <c r="C48" s="35"/>
@@ -5071,12 +5314,12 @@
       <c r="O48" s="40"/>
       <c r="P48" s="40"/>
       <c r="Q48" s="38"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="38"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="69"/>
     </row>
     <row r="49" spans="3:23">
       <c r="C49" s="35"/>
@@ -5094,12 +5337,12 @@
       <c r="O49" s="40"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="38"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="38"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="69"/>
     </row>
     <row r="50" spans="3:23">
       <c r="C50" s="35"/>
@@ -5117,12 +5360,12 @@
       <c r="O50" s="40"/>
       <c r="P50" s="40"/>
       <c r="Q50" s="38"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="38"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="69"/>
     </row>
     <row r="51" spans="3:23">
       <c r="C51" s="35"/>
@@ -5140,12 +5383,12 @@
       <c r="O51" s="40"/>
       <c r="P51" s="40"/>
       <c r="Q51" s="38"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="38"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="69"/>
     </row>
     <row r="52" spans="3:23">
       <c r="C52" s="35"/>
@@ -5163,12 +5406,12 @@
       <c r="O52" s="40"/>
       <c r="P52" s="40"/>
       <c r="Q52" s="38"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="38"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="69"/>
     </row>
     <row r="53" spans="3:23">
       <c r="C53" s="35"/>
@@ -5186,12 +5429,12 @@
       <c r="O53" s="40"/>
       <c r="P53" s="40"/>
       <c r="Q53" s="38"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="38"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="69"/>
     </row>
     <row r="54" spans="3:23">
       <c r="C54" s="35"/>
@@ -5209,14 +5452,14 @@
       <c r="O54" s="40"/>
       <c r="P54" s="40"/>
       <c r="Q54" s="38"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="38"/>
-    </row>
-    <row r="55" ht="14.25" spans="3:23">
+      <c r="R54" s="67"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="69"/>
+    </row>
+    <row r="55" spans="3:23">
       <c r="C55" s="35"/>
       <c r="D55" s="36"/>
       <c r="E55" s="41"/>
@@ -5232,22 +5475,22 @@
       <c r="O55" s="41"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="42"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="42"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
+      <c r="W55" s="72"/>
     </row>
     <row r="56" spans="3:23">
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="E56" s="34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
@@ -5258,12 +5501,12 @@
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="49"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
       <c r="W56" s="66"/>
     </row>
     <row r="57" spans="3:23">
@@ -5281,13 +5524,13 @@
       <c r="N57" s="51"/>
       <c r="O57" s="51"/>
       <c r="P57" s="51"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="67"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="69"/>
     </row>
     <row r="58" spans="3:23">
       <c r="C58" s="35"/>
@@ -5304,13 +5547,13 @@
       <c r="N58" s="51"/>
       <c r="O58" s="51"/>
       <c r="P58" s="51"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="67"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="69"/>
     </row>
     <row r="59" spans="3:23">
       <c r="C59" s="35"/>
@@ -5327,13 +5570,13 @@
       <c r="N59" s="51"/>
       <c r="O59" s="51"/>
       <c r="P59" s="51"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="67"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="69"/>
     </row>
     <row r="60" spans="3:23">
       <c r="C60" s="35"/>
@@ -5350,13 +5593,13 @@
       <c r="N60" s="51"/>
       <c r="O60" s="51"/>
       <c r="P60" s="51"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="67"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="69"/>
     </row>
     <row r="61" spans="3:23">
       <c r="C61" s="35"/>
@@ -5373,13 +5616,13 @@
       <c r="N61" s="51"/>
       <c r="O61" s="51"/>
       <c r="P61" s="51"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="50"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="67"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="69"/>
     </row>
     <row r="62" spans="3:23">
       <c r="C62" s="35"/>
@@ -5396,13 +5639,13 @@
       <c r="N62" s="51"/>
       <c r="O62" s="51"/>
       <c r="P62" s="51"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="67"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="69"/>
     </row>
     <row r="63" spans="3:23">
       <c r="C63" s="35"/>
@@ -5419,15 +5662,15 @@
       <c r="N63" s="51"/>
       <c r="O63" s="51"/>
       <c r="P63" s="51"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="50"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="67"/>
-    </row>
-    <row r="64" ht="14.25" spans="3:23">
+      <c r="Q63" s="74"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="69"/>
+    </row>
+    <row r="64" spans="3:23">
       <c r="C64" s="35"/>
       <c r="D64" s="36"/>
       <c r="E64" s="41"/>
@@ -5442,22 +5685,24 @@
       <c r="N64" s="53"/>
       <c r="O64" s="53"/>
       <c r="P64" s="53"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="68"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="71"/>
+      <c r="W64" s="72"/>
     </row>
     <row r="65" spans="3:23">
       <c r="C65" s="35"/>
       <c r="D65" s="36"/>
       <c r="E65" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F65" s="32"/>
-      <c r="G65" s="44"/>
+      <c r="G65" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
       <c r="J65" s="34"/>
@@ -5467,12 +5712,12 @@
       <c r="N65" s="49"/>
       <c r="O65" s="49"/>
       <c r="P65" s="49"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
       <c r="W65" s="66"/>
     </row>
     <row r="66" spans="3:23">
@@ -5490,13 +5735,13 @@
       <c r="N66" s="51"/>
       <c r="O66" s="51"/>
       <c r="P66" s="51"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="67"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="68"/>
+      <c r="W66" s="69"/>
     </row>
     <row r="67" spans="3:23">
       <c r="C67" s="35"/>
@@ -5513,13 +5758,13 @@
       <c r="N67" s="51"/>
       <c r="O67" s="51"/>
       <c r="P67" s="51"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="67"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="68"/>
+      <c r="W67" s="69"/>
     </row>
     <row r="68" spans="3:23">
       <c r="C68" s="35"/>
@@ -5536,13 +5781,13 @@
       <c r="N68" s="51"/>
       <c r="O68" s="51"/>
       <c r="P68" s="51"/>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="51"/>
-      <c r="U68" s="51"/>
-      <c r="V68" s="51"/>
-      <c r="W68" s="67"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="69"/>
     </row>
     <row r="69" spans="3:23">
       <c r="C69" s="35"/>
@@ -5559,13 +5804,13 @@
       <c r="N69" s="51"/>
       <c r="O69" s="51"/>
       <c r="P69" s="51"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="67"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="69"/>
     </row>
     <row r="70" spans="3:23">
       <c r="C70" s="35"/>
@@ -5582,13 +5827,13 @@
       <c r="N70" s="51"/>
       <c r="O70" s="51"/>
       <c r="P70" s="51"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="51"/>
-      <c r="U70" s="51"/>
-      <c r="V70" s="51"/>
-      <c r="W70" s="67"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="68"/>
+      <c r="T70" s="68"/>
+      <c r="U70" s="68"/>
+      <c r="V70" s="68"/>
+      <c r="W70" s="69"/>
     </row>
     <row r="71" spans="3:23">
       <c r="C71" s="35"/>
@@ -5605,13 +5850,13 @@
       <c r="N71" s="51"/>
       <c r="O71" s="51"/>
       <c r="P71" s="51"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="50"/>
-      <c r="S71" s="51"/>
-      <c r="T71" s="51"/>
-      <c r="U71" s="51"/>
-      <c r="V71" s="51"/>
-      <c r="W71" s="67"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="69"/>
     </row>
     <row r="72" spans="3:23">
       <c r="C72" s="35"/>
@@ -5628,17 +5873,17 @@
       <c r="N72" s="51"/>
       <c r="O72" s="51"/>
       <c r="P72" s="51"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="67"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="69"/>
     </row>
     <row r="73" ht="14.25" spans="3:23">
-      <c r="C73" s="69"/>
-      <c r="D73" s="70"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="77"/>
       <c r="E73" s="41"/>
       <c r="F73" s="42"/>
       <c r="G73" s="43"/>
@@ -5651,391 +5896,391 @@
       <c r="N73" s="53"/>
       <c r="O73" s="53"/>
       <c r="P73" s="53"/>
-      <c r="Q73" s="68"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="68"/>
+      <c r="Q73" s="75"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
+      <c r="V73" s="71"/>
+      <c r="W73" s="72"/>
     </row>
     <row r="74" spans="5:23">
-      <c r="E74" s="71"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="73"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-      <c r="W74" s="72"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="78"/>
+      <c r="S74" s="80"/>
+      <c r="T74" s="80"/>
+      <c r="U74" s="80"/>
+      <c r="V74" s="80"/>
+      <c r="W74" s="79"/>
     </row>
     <row r="75" spans="5:23">
-      <c r="E75" s="74"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="74"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="76"/>
-      <c r="O75" s="76"/>
-      <c r="P75" s="76"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="74"/>
-      <c r="S75" s="76"/>
-      <c r="T75" s="76"/>
-      <c r="U75" s="76"/>
-      <c r="V75" s="76"/>
-      <c r="W75" s="75"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="82"/>
+      <c r="R75" s="81"/>
+      <c r="S75" s="83"/>
+      <c r="T75" s="83"/>
+      <c r="U75" s="83"/>
+      <c r="V75" s="83"/>
+      <c r="W75" s="82"/>
     </row>
     <row r="76" spans="5:23">
-      <c r="E76" s="74"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="74"/>
-      <c r="S76" s="76"/>
-      <c r="T76" s="76"/>
-      <c r="U76" s="76"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="75"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="81"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="82"/>
+      <c r="R76" s="81"/>
+      <c r="S76" s="83"/>
+      <c r="T76" s="83"/>
+      <c r="U76" s="83"/>
+      <c r="V76" s="83"/>
+      <c r="W76" s="82"/>
     </row>
     <row r="77" spans="5:23">
-      <c r="E77" s="74"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="74"/>
-      <c r="S77" s="76"/>
-      <c r="T77" s="76"/>
-      <c r="U77" s="76"/>
-      <c r="V77" s="76"/>
-      <c r="W77" s="75"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="82"/>
+      <c r="R77" s="81"/>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="U77" s="83"/>
+      <c r="V77" s="83"/>
+      <c r="W77" s="82"/>
     </row>
     <row r="78" spans="5:23">
-      <c r="E78" s="74"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="76"/>
-      <c r="O78" s="76"/>
-      <c r="P78" s="76"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="74"/>
-      <c r="S78" s="76"/>
-      <c r="T78" s="76"/>
-      <c r="U78" s="76"/>
-      <c r="V78" s="76"/>
-      <c r="W78" s="75"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="Q78" s="82"/>
+      <c r="R78" s="81"/>
+      <c r="S78" s="83"/>
+      <c r="T78" s="83"/>
+      <c r="U78" s="83"/>
+      <c r="V78" s="83"/>
+      <c r="W78" s="82"/>
     </row>
     <row r="79" spans="5:23">
-      <c r="E79" s="74"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="76"/>
-      <c r="T79" s="76"/>
-      <c r="U79" s="76"/>
-      <c r="V79" s="76"/>
-      <c r="W79" s="75"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="82"/>
+      <c r="R79" s="81"/>
+      <c r="S79" s="83"/>
+      <c r="T79" s="83"/>
+      <c r="U79" s="83"/>
+      <c r="V79" s="83"/>
+      <c r="W79" s="82"/>
     </row>
     <row r="80" spans="5:23">
-      <c r="E80" s="74"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="76"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="74"/>
-      <c r="S80" s="76"/>
-      <c r="T80" s="76"/>
-      <c r="U80" s="76"/>
-      <c r="V80" s="76"/>
-      <c r="W80" s="75"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="81"/>
+      <c r="S80" s="83"/>
+      <c r="T80" s="83"/>
+      <c r="U80" s="83"/>
+      <c r="V80" s="83"/>
+      <c r="W80" s="82"/>
     </row>
     <row r="81" spans="5:23">
-      <c r="E81" s="74"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="74"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="74"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="75"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="82"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="83"/>
+      <c r="Q81" s="82"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="83"/>
+      <c r="T81" s="83"/>
+      <c r="U81" s="83"/>
+      <c r="V81" s="83"/>
+      <c r="W81" s="82"/>
     </row>
     <row r="82" ht="14.25" spans="5:23">
-      <c r="E82" s="77"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="79"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
-      <c r="O82" s="79"/>
-      <c r="P82" s="79"/>
-      <c r="Q82" s="78"/>
-      <c r="R82" s="77"/>
-      <c r="S82" s="79"/>
-      <c r="T82" s="79"/>
-      <c r="U82" s="79"/>
-      <c r="V82" s="79"/>
-      <c r="W82" s="78"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="86"/>
+      <c r="N82" s="86"/>
+      <c r="O82" s="86"/>
+      <c r="P82" s="86"/>
+      <c r="Q82" s="85"/>
+      <c r="R82" s="84"/>
+      <c r="S82" s="86"/>
+      <c r="T82" s="86"/>
+      <c r="U82" s="86"/>
+      <c r="V82" s="86"/>
+      <c r="W82" s="85"/>
     </row>
     <row r="83" spans="5:23">
-      <c r="E83" s="71"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="73"/>
-      <c r="N83" s="73"/>
-      <c r="O83" s="73"/>
-      <c r="P83" s="73"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="73"/>
-      <c r="T83" s="73"/>
-      <c r="U83" s="73"/>
-      <c r="V83" s="73"/>
-      <c r="W83" s="72"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="80"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="79"/>
+      <c r="R83" s="78"/>
+      <c r="S83" s="80"/>
+      <c r="T83" s="80"/>
+      <c r="U83" s="80"/>
+      <c r="V83" s="80"/>
+      <c r="W83" s="79"/>
     </row>
     <row r="84" spans="5:23">
-      <c r="E84" s="74"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="74"/>
-      <c r="S84" s="76"/>
-      <c r="T84" s="76"/>
-      <c r="U84" s="76"/>
-      <c r="V84" s="76"/>
-      <c r="W84" s="75"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="83"/>
+      <c r="Q84" s="82"/>
+      <c r="R84" s="81"/>
+      <c r="S84" s="83"/>
+      <c r="T84" s="83"/>
+      <c r="U84" s="83"/>
+      <c r="V84" s="83"/>
+      <c r="W84" s="82"/>
     </row>
     <row r="85" spans="5:23">
-      <c r="E85" s="74"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="74"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="74"/>
-      <c r="S85" s="76"/>
-      <c r="T85" s="76"/>
-      <c r="U85" s="76"/>
-      <c r="V85" s="76"/>
-      <c r="W85" s="75"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="83"/>
+      <c r="K85" s="82"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="83"/>
+      <c r="N85" s="83"/>
+      <c r="O85" s="83"/>
+      <c r="P85" s="83"/>
+      <c r="Q85" s="82"/>
+      <c r="R85" s="81"/>
+      <c r="S85" s="83"/>
+      <c r="T85" s="83"/>
+      <c r="U85" s="83"/>
+      <c r="V85" s="83"/>
+      <c r="W85" s="82"/>
     </row>
     <row r="86" spans="5:23">
-      <c r="E86" s="74"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="74"/>
-      <c r="H86" s="76"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="76"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="74"/>
-      <c r="M86" s="76"/>
-      <c r="N86" s="76"/>
-      <c r="O86" s="76"/>
-      <c r="P86" s="76"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="74"/>
-      <c r="S86" s="76"/>
-      <c r="T86" s="76"/>
-      <c r="U86" s="76"/>
-      <c r="V86" s="76"/>
-      <c r="W86" s="75"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="83"/>
+      <c r="K86" s="82"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="83"/>
+      <c r="N86" s="83"/>
+      <c r="O86" s="83"/>
+      <c r="P86" s="83"/>
+      <c r="Q86" s="82"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="83"/>
+      <c r="T86" s="83"/>
+      <c r="U86" s="83"/>
+      <c r="V86" s="83"/>
+      <c r="W86" s="82"/>
     </row>
     <row r="87" spans="5:23">
-      <c r="E87" s="74"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="76"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="76"/>
-      <c r="N87" s="76"/>
-      <c r="O87" s="76"/>
-      <c r="P87" s="76"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="74"/>
-      <c r="S87" s="76"/>
-      <c r="T87" s="76"/>
-      <c r="U87" s="76"/>
-      <c r="V87" s="76"/>
-      <c r="W87" s="75"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="83"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="83"/>
+      <c r="N87" s="83"/>
+      <c r="O87" s="83"/>
+      <c r="P87" s="83"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="83"/>
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="83"/>
+      <c r="W87" s="82"/>
     </row>
     <row r="88" spans="5:23">
-      <c r="E88" s="74"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
-      <c r="K88" s="75"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="76"/>
-      <c r="N88" s="76"/>
-      <c r="O88" s="76"/>
-      <c r="P88" s="76"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="74"/>
-      <c r="S88" s="76"/>
-      <c r="T88" s="76"/>
-      <c r="U88" s="76"/>
-      <c r="V88" s="76"/>
-      <c r="W88" s="75"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="83"/>
+      <c r="N88" s="83"/>
+      <c r="O88" s="83"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="82"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="83"/>
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="83"/>
+      <c r="W88" s="82"/>
     </row>
     <row r="89" spans="5:23">
-      <c r="E89" s="74"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="76"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="74"/>
-      <c r="S89" s="76"/>
-      <c r="T89" s="76"/>
-      <c r="U89" s="76"/>
-      <c r="V89" s="76"/>
-      <c r="W89" s="75"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="82"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="83"/>
+      <c r="Q89" s="82"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="83"/>
+      <c r="U89" s="83"/>
+      <c r="V89" s="83"/>
+      <c r="W89" s="82"/>
     </row>
     <row r="90" spans="5:23">
-      <c r="E90" s="74"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="76"/>
-      <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="74"/>
-      <c r="S90" s="76"/>
-      <c r="T90" s="76"/>
-      <c r="U90" s="76"/>
-      <c r="V90" s="76"/>
-      <c r="W90" s="75"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="83"/>
+      <c r="K90" s="82"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="83"/>
+      <c r="N90" s="83"/>
+      <c r="O90" s="83"/>
+      <c r="P90" s="83"/>
+      <c r="Q90" s="82"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="83"/>
+      <c r="T90" s="83"/>
+      <c r="U90" s="83"/>
+      <c r="V90" s="83"/>
+      <c r="W90" s="82"/>
     </row>
     <row r="91" ht="14.25" spans="5:23">
-      <c r="E91" s="77"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="79"/>
-      <c r="J91" s="79"/>
-      <c r="K91" s="78"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="79"/>
-      <c r="N91" s="79"/>
-      <c r="O91" s="79"/>
-      <c r="P91" s="79"/>
-      <c r="Q91" s="78"/>
-      <c r="R91" s="77"/>
-      <c r="S91" s="79"/>
-      <c r="T91" s="79"/>
-      <c r="U91" s="79"/>
-      <c r="V91" s="79"/>
-      <c r="W91" s="78"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="84"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="86"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="84"/>
+      <c r="S91" s="86"/>
+      <c r="T91" s="86"/>
+      <c r="U91" s="86"/>
+      <c r="V91" s="86"/>
+      <c r="W91" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="44">

--- a/Cerberus进度.xlsx
+++ b/Cerberus进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V01" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>未完成</t>
   </si>
@@ -414,6 +414,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.DCDC 升压 5V；</t>
     </r>
     <r>
@@ -487,10 +494,23 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1.焊接；
+2.断开别的部分，用数控源验证；
+3.输入3V7，验证能否输出5V；
+</t>
+  </si>
+  <si>
     <t>LDO 降压3V3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.LDO降压 3V3；</t>
     </r>
     <r>
@@ -526,14 +546,32 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1.焊接单个部分；
+2.断开别的地方；
+3.测试输入5V能不能降压到3V3；
+4.依次焊接，依次验证；
+</t>
+  </si>
+  <si>
     <t>引出接口</t>
   </si>
   <si>
-    <t xml:space="preserve">PWM接口
+    <r>
+      <t>PWM接口
 7V4端子
 5V端子
-3V3端子
+3V3端子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
   </si>
   <si>
     <t>测试点</t>
@@ -732,6 +770,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,12 +787,6 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1520,13 +1558,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4299,7 +4337,7 @@
   <sheetPr/>
   <dimension ref="C2:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="L47" sqref="L47:Q55"/>
     </sheetView>
   </sheetViews>
@@ -4386,14 +4424,14 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="44"/>
       <c r="M8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="45"/>
+      <c r="Q8" s="44"/>
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="58"/>
@@ -4408,12 +4446,12 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="46"/>
+      <c r="K9" s="45"/>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="46"/>
+      <c r="Q9" s="45"/>
       <c r="R9" s="60"/>
       <c r="S9" s="61"/>
       <c r="T9" s="61"/>
@@ -4428,12 +4466,12 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="46"/>
+      <c r="K10" s="45"/>
       <c r="M10" s="15"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="46"/>
+      <c r="Q10" s="45"/>
       <c r="R10" s="60"/>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -4448,12 +4486,12 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="45"/>
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="46"/>
+      <c r="Q11" s="45"/>
       <c r="R11" s="60"/>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
@@ -4468,12 +4506,12 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="46"/>
+      <c r="K12" s="45"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="46"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="60"/>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -4488,12 +4526,12 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="46"/>
+      <c r="K13" s="45"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="46"/>
+      <c r="Q13" s="45"/>
       <c r="R13" s="60"/>
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
@@ -4508,12 +4546,12 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="46"/>
+      <c r="K14" s="45"/>
       <c r="M14" s="15"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="46"/>
+      <c r="Q14" s="45"/>
       <c r="R14" s="63"/>
       <c r="S14" s="64"/>
       <c r="T14" s="64"/>
@@ -4536,7 +4574,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="46"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="5:19">
       <c r="E16" s="15"/>
@@ -4553,7 +4591,7 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="46"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" ht="14.25" spans="5:19">
       <c r="E17" s="21"/>
@@ -4570,7 +4608,7 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
-      <c r="S17" s="46"/>
+      <c r="S17" s="45"/>
     </row>
     <row r="18" spans="3:23">
       <c r="C18" s="23" t="s">
@@ -4644,7 +4682,7 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="46" t="s">
         <v>39</v>
       </c>
       <c r="M20" s="34"/>
@@ -4652,7 +4690,7 @@
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="44" t="s">
+      <c r="R20" s="46" t="s">
         <v>40</v>
       </c>
       <c r="S20" s="31"/>
@@ -4822,7 +4860,7 @@
       <c r="V27" s="68"/>
       <c r="W27" s="69"/>
     </row>
-    <row r="28" ht="14.25" spans="3:23">
+    <row r="28" spans="3:23">
       <c r="C28" s="35"/>
       <c r="D28" s="36"/>
       <c r="E28" s="41"/>
@@ -4867,7 +4905,7 @@
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="32"/>
-      <c r="R29" s="44" t="s">
+      <c r="R29" s="46" t="s">
         <v>44</v>
       </c>
       <c r="S29" s="31"/>
@@ -5080,7 +5118,9 @@
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="32"/>
-      <c r="R38" s="44"/>
+      <c r="R38" s="46" t="s">
+        <v>47</v>
+      </c>
       <c r="S38" s="31"/>
       <c r="T38" s="31"/>
       <c r="U38" s="31"/>
@@ -5275,11 +5315,11 @@
       <c r="C47" s="35"/>
       <c r="D47" s="36"/>
       <c r="E47" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -5291,7 +5331,9 @@
       <c r="O47" s="34"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="32"/>
-      <c r="R47" s="44"/>
+      <c r="R47" s="46" t="s">
+        <v>50</v>
+      </c>
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
@@ -5486,11 +5528,11 @@
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="E56" s="34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F56" s="32"/>
-      <c r="G56" s="44" t="s">
-        <v>50</v>
+      <c r="G56" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="H56" s="34"/>
       <c r="I56" s="34"/>
@@ -5502,7 +5544,7 @@
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
       <c r="Q56" s="73"/>
-      <c r="R56" s="44"/>
+      <c r="R56" s="46"/>
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
       <c r="U56" s="31"/>
@@ -5670,7 +5712,7 @@
       <c r="V63" s="68"/>
       <c r="W63" s="69"/>
     </row>
-    <row r="64" spans="3:23">
+    <row r="64" ht="14.25" spans="3:23">
       <c r="C64" s="35"/>
       <c r="D64" s="36"/>
       <c r="E64" s="41"/>
@@ -5697,11 +5739,11 @@
       <c r="C65" s="35"/>
       <c r="D65" s="36"/>
       <c r="E65" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" s="32"/>
-      <c r="G65" s="44" t="s">
-        <v>52</v>
+      <c r="G65" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
@@ -5713,7 +5755,7 @@
       <c r="O65" s="49"/>
       <c r="P65" s="49"/>
       <c r="Q65" s="73"/>
-      <c r="R65" s="44"/>
+      <c r="R65" s="46"/>
       <c r="S65" s="31"/>
       <c r="T65" s="31"/>
       <c r="U65" s="31"/>
